--- a/biology/Botanique/Avena_byzantina/Avena_byzantina.xlsx
+++ b/biology/Botanique/Avena_byzantina/Avena_byzantina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avena byzantina, l'avoine rouge, avoine d'Algérie ou avoine byzantine, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du bassin méditerranéen et d'Asie occidentale.
 Cette espèce hexaploïde (2n = 6x = 42) est cultivée pour la production de grains et de fourrage, et largement hybridée avec Avena sativa. Certains auteurs considèrent Avena byzantina comme un synonyme d'Avena sativa.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (21 décembre 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 décembre 2017) :
 Avena byzantina var. biaristata (Hack. ex Trab.) Thell.
 Avena byzantina var. hypomelanthera (Thell.) Parodi
 Avena sativa var. biaristata Hack. ex Trab., nom. illeg.
@@ -525,8 +542,43 @@
 Avena sterilis subsp. byzantina (K.Koch) Thell.
 Avena sterilis var. hypomelanthera (Thell.) Parodi
 Avena sterilis f. hypomelanthera Thell.
-Liste des variétés
-Selon The Plant List            (21 décembre 2017)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Avena_byzantina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avena_byzantina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (21 décembre 2017) :
 variété Avena byzantina var. pseudovilis (Hausskn.) Maire &amp; Weiller</t>
         </is>
       </c>
